--- a/TestCase.xlsx
+++ b/TestCase.xlsx
@@ -8,24 +8,35 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\OneDrive\Documents\GitHub\Lab08\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFA65866-D919-46D5-8D8A-0C6AE85EF833}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8504B9F9-C427-4B92-A759-760F41DF544E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="44">
   <si>
     <t>Case No.</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -52,6 +63,152 @@
   </si>
   <si>
     <t>Remark</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test can the spawner spawn obstacle object constantly in every 1s, in game scene.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test can the spawner spawn different obstacle object randomly, in game scene.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test can the obstacle object are move in right correct direction from left to right, in game scene.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test will the game go to GameOver scene when player collide with the obstacle, in game scene.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test can the game be restart, by clicking the restart button, in GameOver scene.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>In the game sceen, observe the right side of the screen.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Every 1 second there will be a new obstacle spawn out.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>In the game screen, observe the right side of the screen.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Every 1 second there will be a new obstacle been spawn out.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The obstacles spawn at the right side of the screen are mix of different colours (Brown, Red and Green).</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The Obstacles spawn at the right side of the screen will move from right side of the screen to left side of the screen, in a straight line.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Every time player avoid the obstacles, the UI element score at the top left of the screen will increase by 1.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>When player obejct collides with obstacle, the GameOver scene will be load.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A new round of game start.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>When player obejct collides with obstacle, the GameOver scene had been loaded.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The Obstacles spawn at the right side of the screen are move from right side of the screen to left side of the screen, in a straight line.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pass</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nil</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>In the game screen, try to control the player by moving up and down using up arrow key or down arrow key to avoid the obstacles.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>In the game screen, don’t make any input, wait for the player object collides with an obstacle.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>In the GameOver scene, use mouse and left click on the Restart button.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test if the player object can move upward or downward in game scene, when up arrow key or down arrow key is pressed.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>In the game scene, press the up arrow key or down arrow once.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The player object move up a bit, when up arrow key is pressed, move down a bit when down arrow key is pressed.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test can the player object move out from the screen, in game scene, when keep control it to move up or down.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>In the game scene, hold the up arrow key or down arrow key.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Once the player object touch the top or bottom of the screen, it will not able to move up or down anymore.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Once the player object touch the top or bottom of the screen, it cannot move up and down anymore.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The player obect move up or down a bit.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Every time player avoid the obstacles, the UI element score at the top left of the screen increase by 1.</t>
+  </si>
+  <si>
+    <t>Every time player avoid the obstacles, the score variable in GameManager increase by 1.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test will the score UI element increase and update whenever player had successfully avoid an obstacle, in game scene.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test will the score variable increase by 1 when player had successfully avoid an obstacle, in game scene.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Test will the obstacle automatically destroy 5 seconds after it been spawned. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>In the game screen, observe the obstacles.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5 seconds after the obstacles been spawned, the obstacle destroy automatically.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -102,7 +259,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -113,9 +270,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -396,14 +571,14 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="17.77734375" customWidth="1"/>
-    <col min="2" max="3" width="53.33203125" customWidth="1"/>
-    <col min="4" max="5" width="35.5546875" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="53.33203125" style="7" customWidth="1"/>
+    <col min="4" max="5" width="35.5546875" style="7" customWidth="1"/>
     <col min="6" max="6" width="17.77734375" customWidth="1"/>
     <col min="7" max="7" width="26.6640625" customWidth="1"/>
   </cols>
@@ -412,16 +587,16 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
@@ -431,58 +606,243 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" ht="41.4">
       <c r="A2" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="B2" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="41.4">
       <c r="A3" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="B3" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="27.6">
       <c r="A4" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="B4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="41.4">
       <c r="A5" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="B5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="55.2">
       <c r="A6" s="3">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="B6" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="41.4">
       <c r="A7" s="3">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="B7" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="41.4">
       <c r="A8" s="3">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="B8" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="41.4">
       <c r="A9" s="3">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="B9" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="41.4">
       <c r="A10" s="3">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="B10" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="27.6">
       <c r="A11" s="3">
         <v>10</v>
       </c>
+      <c r="B11" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>24</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F10:F11 F2:F8" xr:uid="{FBCBE474-BABC-446D-A827-145B8330B0B0}">
+      <formula1>"Pass, Fail"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
